--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2361300.524587524</v>
+        <v>-2363995.321863372</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>229.8977376239631</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>196.5501500659886</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.74677700470579</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>63.69001051091617</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>218.7299981907075</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.5711540783789</v>
+        <v>273.6302781898802</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>135.8842974161964</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>274.816346182513</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>153.5988982317306</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0993156429777</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847859</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>168.3346747233659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>50.52682476229775</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740351</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176154</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581646</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265261</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.2093035084148</v>
+        <v>1462.856840871423</v>
       </c>
       <c r="C2" t="n">
-        <v>51.2467865680031</v>
+        <v>1093.894323931012</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2467865680031</v>
+        <v>735.6286253242611</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>349.8403727260168</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.414233809428</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1196.948475548348</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y2" t="n">
-        <v>806.8091435725366</v>
+        <v>1462.856840871423</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694942</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>485.8639787663282</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>957.4325513382325</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>668.015381301272</v>
+        <v>1116.294573638115</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>888.305022740098</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>667.5124435965679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.517185281609</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927799</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1228.647807131574</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>956.2844025217537</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786115</v>
+        <v>655.4695685676049</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>486.5333856396981</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>336.4167462273623</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>188.5036526449692</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>188.5036526449692</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.291963913589</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.291963913589</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>743.8747938766288</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X7" t="n">
-        <v>515.8852429786115</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8852429786115</v>
+        <v>837.1180333978447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2089.358425227295</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>404.8710673258088</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>397.9255665766054</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.097597267229</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2866.097597267229</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2475.958265291417</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8459426266613</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266613</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1054.704156637392</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>765.2869866004312</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>765.2869866004312</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.4944074569011</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.965271928681</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2328.88018310307</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2109.278718126011</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,16 +6130,16 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
         <v>898.2659412311325</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
         <v>2179.340199382518</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6625,43 +6625,43 @@
         <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
         <v>782.551295565682</v>
@@ -6844,25 +6844,25 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979287</v>
@@ -6877,13 +6877,13 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580121</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979287</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7369,7 +7369,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213312</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247062</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796382</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175645</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.757116639391</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315928</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119782</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.352323729352</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176795</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719453</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912513</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660666</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337794</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654576</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612653</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229214</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.920990213811</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519666</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081896</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150024</v>
@@ -7792,25 +7792,25 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878344</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>186.4490126143839</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.5389251356815</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>176.9783081177483</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>152.6908186514244</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.500044093922</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>188.4476328129118</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>130.4994612393468</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833683</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948076</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272276</v>
+        <v>31766.15265272277</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
@@ -26323,13 +26323,13 @@
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
@@ -26338,19 +26338,19 @@
         <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363183</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081906</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>19427.7179936318</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30724.14482028151</v>
+        <v>30724.14482028153</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921024</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.20035675651</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756533</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="J4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985003</v>
       </c>
       <c r="K4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="M4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17328.05961985008</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="P4" t="n">
         <v>17328.05961985005</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985006</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17328.05961985006</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1206647.548183323</v>
+        <v>-1207111.844975348</v>
       </c>
       <c r="C6" t="n">
-        <v>-188611.9576387331</v>
+        <v>-188611.957638733</v>
       </c>
       <c r="D6" t="n">
-        <v>-348033.227636625</v>
+        <v>-348033.2276366245</v>
       </c>
       <c r="E6" t="n">
-        <v>-395514.8620035188</v>
+        <v>-395549.5999289544</v>
       </c>
       <c r="F6" t="n">
-        <v>-70102.40019616333</v>
+        <v>-70137.13812159911</v>
       </c>
       <c r="G6" t="n">
-        <v>-70102.40019616338</v>
+        <v>-70137.13812159908</v>
       </c>
       <c r="H6" t="n">
-        <v>-70102.40019616327</v>
+        <v>-70137.13812159903</v>
       </c>
       <c r="I6" t="n">
-        <v>-98867.80497418303</v>
+        <v>-98867.80497418309</v>
       </c>
       <c r="J6" t="n">
-        <v>-247045.2647905338</v>
+        <v>-247045.2647905339</v>
       </c>
       <c r="K6" t="n">
-        <v>-79440.08698055128</v>
+        <v>-79440.08698055126</v>
       </c>
       <c r="L6" t="n">
-        <v>-127734.056988742</v>
+        <v>-127734.0569887418</v>
       </c>
       <c r="M6" t="n">
         <v>-164495.1149160631</v>
       </c>
       <c r="N6" t="n">
-        <v>-98867.80497418306</v>
+        <v>-98867.80497418309</v>
       </c>
       <c r="O6" t="n">
         <v>-79440.08698055129</v>
       </c>
       <c r="P6" t="n">
-        <v>-79440.08698055116</v>
+        <v>-79440.08698055126</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.39144493658029</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>67.7930001458835</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.6667845776747</v>
+        <v>112.6076604661734</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.42230262860781</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>11.41080793868758</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>211.6739935392769</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>82.82241001047572</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>83.80296860046215</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.3312853305614</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021232</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807084</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>521.8736946105071</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124453992</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187898</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36443,13 +36443,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845518</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
